--- a/dailyWorkReports/2024-02-06「あさか丸」当直ー作業日報(1).xlsx
+++ b/dailyWorkReports/2024-02-06「あさか丸」当直ー作業日報(1).xlsx
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="V8" s="51" t="n">
-        <v>0.2152777777777778</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="9" ht="30" customFormat="1" customHeight="1" s="3">
@@ -2113,7 +2113,7 @@
       <c r="R10" s="12" t="n"/>
       <c r="S10" s="13" t="n"/>
       <c r="T10" s="55" t="n">
-        <v>0.006944444444444444</v>
+        <v>0</v>
       </c>
       <c r="U10" s="80" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="V13" s="53" t="n">
-        <v>0.7569444444444444</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="V15" s="54" t="n">
-        <v>0.3402777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1" thickTop="1">
@@ -2472,9 +2472,8 @@
           <t>使用時間計</t>
         </is>
       </c>
-      <c r="V19" s="35">
-        <f>SUM(M7:M20)</f>
-        <v/>
+      <c r="V19" s="35" t="n">
+        <v>0.5277777777777778</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1">
